--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuvenMeza\Documents\ITC\Metodos Agiles\proyecto scrumdo\scrumdo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
@@ -15,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$C$1:$C$24</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
   <si>
     <r>
       <t>1.</t>
@@ -598,9 +603,6 @@
     <t>H1</t>
   </si>
   <si>
-    <t>Selección de LP</t>
-  </si>
-  <si>
     <t>Analista</t>
   </si>
   <si>
@@ -610,9 +612,6 @@
     <t>Modelar interfaces</t>
   </si>
   <si>
-    <t>Modelar clase</t>
-  </si>
-  <si>
     <t>Documentar analisis</t>
   </si>
   <si>
@@ -628,9 +627,6 @@
     <t>Analisis de arquitectura</t>
   </si>
   <si>
-    <t>codificar aplicación</t>
-  </si>
-  <si>
     <t>Definir casos de prueba</t>
   </si>
   <si>
@@ -661,13 +657,43 @@
     <t>Definir interfaz gráfica</t>
   </si>
   <si>
-    <t>Definir arquitectura de sfw</t>
-  </si>
-  <si>
-    <t>Codificar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crear tablas </t>
+  </si>
+  <si>
+    <t>Establecer politicas de seguridad</t>
+  </si>
+  <si>
+    <t>Arquitecto de Software</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Modelar clases</t>
+  </si>
+  <si>
+    <t>Definir arquitectura de software</t>
+  </si>
+  <si>
+    <t>Selección de Lenguaje de programación</t>
+  </si>
+  <si>
+    <t>Codificar modulo</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>Generar archivo a descargar</t>
+  </si>
+  <si>
+    <t>Planear logica funcional del modulo</t>
   </si>
 </sst>
 </file>
@@ -697,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -720,22 +746,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,7 +763,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +801,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -835,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1756,16 +1773,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,10 +1805,10 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1799,10 +1817,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1811,10 +1829,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1823,10 +1841,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1835,10 +1853,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1847,10 +1865,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1859,10 +1877,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -1871,10 +1889,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1883,10 +1901,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1895,10 +1913,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1907,34 +1925,34 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1943,56 +1961,277 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <r>
       <t>1.</t>
@@ -645,9 +645,6 @@
     <t>Testers</t>
   </si>
   <si>
-    <t>Accesar a la BD ya existente</t>
-  </si>
-  <si>
     <t>Implementar nueva BD</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
     <t>Selección de Lenguaje de programación</t>
   </si>
   <si>
-    <t>Codificar modulo</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -694,6 +688,12 @@
   </si>
   <si>
     <t>Planear logica funcional del modulo</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Acceder a la BD ya existente</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1786,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1799,13 +1799,16 @@
       <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -1813,8 +1816,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>32</v>
@@ -1825,8 +1831,11 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>33</v>
@@ -1837,11 +1846,14 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
@@ -1849,8 +1861,11 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -1861,8 +1876,11 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>35</v>
@@ -1873,8 +1891,11 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>37</v>
@@ -1885,11 +1906,14 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
@@ -1897,11 +1921,14 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -1909,11 +1936,14 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -1921,47 +1951,59 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
@@ -1969,266 +2011,392 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuvenMeza\Documents\ITC\Metodos Agiles\proyecto scrumdo\scrumdo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$C$1:$C$24</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -852,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,7 +882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,32 +1149,32 @@
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1187,18 +1182,18 @@
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1209,32 +1204,32 @@
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1242,7 +1237,7 @@
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1253,21 +1248,21 @@
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1275,10 +1270,10 @@
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -1286,7 +1281,7 @@
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -1297,10 +1292,10 @@
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1308,7 +1303,7 @@
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -1319,57 +1314,57 @@
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,6 +1374,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C25">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1775,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
